--- a/TestScenario_DemoWebShop.xlsx
+++ b/TestScenario_DemoWebShop.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Personals\TestingProjects\TricentisDemoWebShop\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FD10756D-EE6D-48CA-AD30-0E98BDFA5CBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{51A9A596-B550-4596-9CEB-37A76E2B1274}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="90" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="58" uniqueCount="45">
   <si>
     <t xml:space="preserve">Project Name </t>
   </si>
@@ -108,30 +108,6 @@
     <t>TSDW10</t>
   </si>
   <si>
-    <t>TSDW11</t>
-  </si>
-  <si>
-    <t>TSDW12</t>
-  </si>
-  <si>
-    <t>TSDW13</t>
-  </si>
-  <si>
-    <t>TSDW14</t>
-  </si>
-  <si>
-    <t>TSDW15</t>
-  </si>
-  <si>
-    <t>TSDW16</t>
-  </si>
-  <si>
-    <t>TSDW17</t>
-  </si>
-  <si>
-    <t>TSDW18</t>
-  </si>
-  <si>
     <t>1. Registration</t>
   </si>
   <si>
@@ -153,21 +129,9 @@
     <t>Validate the my profile Page-Landing page</t>
   </si>
   <si>
-    <t>Validate my profile -&gt;  Customer Info</t>
-  </si>
-  <si>
     <t>Validate my profile -&gt;  Addresses Functionality</t>
   </si>
   <si>
-    <t>Validate my profile -&gt;  Downloadable Products</t>
-  </si>
-  <si>
-    <t>Validate my profile -&gt;  Back in Stock Subscription</t>
-  </si>
-  <si>
-    <t>Validate my profile -&gt;  Reward Points</t>
-  </si>
-  <si>
     <t>Validate my profile -&gt;  Change Password</t>
   </si>
   <si>
@@ -189,24 +153,6 @@
     <t>5. Shopping Cart</t>
   </si>
   <si>
-    <t>6. Wishlist</t>
-  </si>
-  <si>
-    <t>Validate the add to wishlist Functionality</t>
-  </si>
-  <si>
-    <t>7. Usability Landing Page</t>
-  </si>
-  <si>
-    <t>Valdiate the HomePage</t>
-  </si>
-  <si>
-    <t>Validate the GUI</t>
-  </si>
-  <si>
-    <t>Validate the Navigation and Links</t>
-  </si>
-  <si>
     <t>P1</t>
   </si>
   <si>
@@ -214,9 +160,6 @@
   </si>
   <si>
     <t>P3</t>
-  </si>
-  <si>
-    <t>P4</t>
   </si>
 </sst>
 </file>
@@ -294,14 +237,14 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="15" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
@@ -590,10 +533,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:E28"/>
+  <dimension ref="A1:E20"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D31" sqref="D31"/>
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="23" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -680,13 +623,13 @@
         <v>17</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>35</v>
+        <v>27</v>
       </c>
       <c r="C10" s="8" t="s">
-        <v>37</v>
+        <v>29</v>
       </c>
       <c r="D10" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -694,13 +637,13 @@
         <v>18</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C11" s="8" t="s">
-        <v>38</v>
+        <v>30</v>
       </c>
       <c r="D11" s="2" t="s">
-        <v>60</v>
+        <v>42</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -708,13 +651,13 @@
         <v>19</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>36</v>
+        <v>28</v>
       </c>
       <c r="C12" s="8" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="D12" s="2" t="s">
-        <v>61</v>
+        <v>43</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -722,13 +665,13 @@
         <v>20</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C13" s="8" t="s">
-        <v>40</v>
+        <v>32</v>
       </c>
       <c r="D13" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -736,13 +679,13 @@
         <v>21</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C14" s="8" t="s">
-        <v>41</v>
+        <v>33</v>
       </c>
       <c r="D14" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -750,13 +693,13 @@
         <v>22</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C15" s="8" t="s">
-        <v>42</v>
+        <v>34</v>
       </c>
       <c r="D15" s="2" t="s">
-        <v>62</v>
+        <v>44</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -764,13 +707,13 @@
         <v>23</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C16" s="8" t="s">
+        <v>35</v>
+      </c>
+      <c r="D16" s="2" t="s">
         <v>43</v>
-      </c>
-      <c r="D16" s="2" t="s">
-        <v>62</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -778,27 +721,27 @@
         <v>24</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>49</v>
+        <v>37</v>
       </c>
       <c r="C17" s="8" t="s">
-        <v>44</v>
+        <v>36</v>
       </c>
       <c r="D17" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A18" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="2" t="s">
-        <v>49</v>
+      <c r="B18" s="3" t="s">
+        <v>38</v>
       </c>
       <c r="C18" s="8" t="s">
-        <v>45</v>
+        <v>39</v>
       </c>
       <c r="D18" s="2" t="s">
-        <v>62</v>
+        <v>43</v>
       </c>
     </row>
     <row r="19" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
@@ -806,129 +749,17 @@
         <v>26</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>49</v>
+        <v>41</v>
       </c>
       <c r="C19" s="8" t="s">
-        <v>46</v>
+        <v>40</v>
       </c>
       <c r="D19" s="2" t="s">
-        <v>62</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A20" s="2" t="s">
-        <v>27</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C20" s="8" t="s">
-        <v>47</v>
-      </c>
-      <c r="D20" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A21" s="2" t="s">
-        <v>28</v>
-      </c>
-      <c r="B21" s="2" t="s">
-        <v>49</v>
-      </c>
-      <c r="C21" s="8" t="s">
-        <v>48</v>
-      </c>
-      <c r="D21" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A22" s="2" t="s">
-        <v>29</v>
-      </c>
-      <c r="B22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="C22" s="8" t="s">
-        <v>51</v>
-      </c>
-      <c r="D22" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A23" s="2" t="s">
-        <v>30</v>
-      </c>
-      <c r="B23" s="2" t="s">
-        <v>53</v>
-      </c>
-      <c r="C23" s="8" t="s">
-        <v>52</v>
-      </c>
-      <c r="D23" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="2" t="s">
-        <v>31</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>54</v>
-      </c>
-      <c r="C24" s="8" t="s">
-        <v>55</v>
-      </c>
-      <c r="D24" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A25" s="2" t="s">
-        <v>32</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C25" s="8" t="s">
-        <v>57</v>
-      </c>
-      <c r="D25" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A26" s="2" t="s">
-        <v>33</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C26" s="8" t="s">
-        <v>58</v>
-      </c>
-      <c r="D26" s="2" t="s">
-        <v>61</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" s="2" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A27" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="B27" s="2" t="s">
-        <v>56</v>
-      </c>
-      <c r="C27" s="8" t="s">
-        <v>59</v>
-      </c>
-      <c r="D27" s="2" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="B28" s="2"/>
+        <v>43</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="B20" s="2"/>
     </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
